--- a/Excel Report Automation/Workbooks/Economic Report 2017Q4.xlsx
+++ b/Excel Report Automation/Workbooks/Economic Report 2017Q4.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Yield Curve" sheetId="1" state="visible" r:id="rId1"/>
@@ -19,7 +19,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt formatCode="0.0%" numFmtId="164"/>
+    <numFmt numFmtId="164" formatCode="0.0%"/>
   </numFmts>
   <fonts count="3">
     <font>
@@ -796,157 +796,224 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="133">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="2" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="12" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="3" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="13" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="4" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="14" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="15" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="5" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="6" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="16" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="7" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="17" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="8" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="18" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="9" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="19" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="10" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="20" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="11" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="21" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" textRotation="90" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf borderId="1" fillId="22" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="23" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="24" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="25" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="26" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="27" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="28" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="19" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="29" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="30" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="31" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="32" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="33" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="34" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="35" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="4" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="6" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="36" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="37" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="38" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="39" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="40" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="41" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="42" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="43" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="44" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="45" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="46" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="47" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="48" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="49" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="50" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="51" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="52" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="53" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="54" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="55" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="56" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="57" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="58" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="59" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="60" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="61" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="62" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="63" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="64" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="65" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="66" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="67" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="68" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="69" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="70" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="71" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="72" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="73" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="74" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="75" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="76" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="77" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="78" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="79" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="80" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="81" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="82" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="83" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="84" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="85" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="86" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="87" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="88" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="12" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="89" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="90" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="91" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="8" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="92" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="93" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="94" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="95" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="96" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="97" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="98" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="99" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="100" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="101" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="102" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="103" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="104" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="105" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="106" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="107" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="108" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="109" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="110" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="111" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="112" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="113" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="114" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="115" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="116" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="117" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="118" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="119" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="120" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="121" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="122" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="123" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="22" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="23" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="24" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="25" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="26" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="27" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="28" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="19" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="29" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="30" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="31" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="32" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="33" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="34" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="35" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="36" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="37" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="38" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="39" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="40" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="41" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="42" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="43" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="44" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="45" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="46" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="47" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="48" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="49" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="50" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="51" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="52" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="53" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="54" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="55" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="56" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="57" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="58" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="59" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="60" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="61" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="62" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="63" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="64" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="65" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="66" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="67" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="68" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="69" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="70" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="71" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="72" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="73" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="74" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="75" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="76" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="77" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="78" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="79" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="80" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="81" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="82" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="83" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="84" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="85" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="86" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="87" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="88" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="12" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="89" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="90" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="91" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="92" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="93" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="94" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="95" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="96" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="97" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="98" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="99" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="100" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="101" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="102" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="103" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="104" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="105" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="106" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="107" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="108" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="109" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="110" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="111" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="112" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="113" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="114" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="115" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="116" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="117" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="118" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="119" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="120" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="121" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="122" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="123" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -962,7 +1029,7 @@
     <ext cx="4114800" cy="2743200"/>
     <pic>
       <nvPicPr>
-        <cNvPr descr="Picture" id="1" name="Image 1"/>
+        <cNvPr id="1" name="Image 1" descr="Picture"/>
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
@@ -989,10 +1056,10 @@
       <row>4</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="3705225" cy="2943225"/>
+    <ext cx="3676650" cy="2943225"/>
     <pic>
       <nvPicPr>
-        <cNvPr descr="Picture" id="1" name="Image 1"/>
+        <cNvPr id="1" name="Image 1" descr="Picture"/>
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
@@ -1019,10 +1086,10 @@
       <row>4</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="3705225" cy="2943225"/>
+    <ext cx="3676650" cy="2943225"/>
     <pic>
       <nvPicPr>
-        <cNvPr descr="Picture" id="1" name="Image 1"/>
+        <cNvPr id="1" name="Image 1" descr="Picture"/>
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
@@ -1337,11 +1404,11 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col customWidth="1" max="2" min="2" width="15"/>
-    <col customWidth="1" max="3" min="3" width="15"/>
-    <col customWidth="1" max="4" min="4" width="15"/>
-    <col customWidth="1" max="5" min="5" width="15"/>
-    <col customWidth="1" max="6" min="6" width="15"/>
+    <col width="15" customWidth="1" min="2" max="2"/>
+    <col width="15" customWidth="1" min="3" max="3"/>
+    <col width="15" customWidth="1" min="4" max="4"/>
+    <col width="15" customWidth="1" min="5" max="5"/>
+    <col width="15" customWidth="1" min="6" max="6"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1365,12 +1432,12 @@
       </c>
       <c r="D3" s="2" t="inlineStr">
         <is>
-          <t>1 Year Change</t>
+          <t>5 Years Ago Curve</t>
         </is>
       </c>
       <c r="E3" s="2" t="inlineStr">
         <is>
-          <t>5 Years Ago Curve</t>
+          <t>1 Year Change</t>
         </is>
       </c>
       <c r="F3" s="2" t="inlineStr">
@@ -1392,10 +1459,10 @@
         <v>0.44</v>
       </c>
       <c r="D4" s="4" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="E4" s="3" t="n">
         <v>0.8400000000000001</v>
-      </c>
-      <c r="E4" s="3" t="n">
-        <v>0.02</v>
       </c>
       <c r="F4" s="5" t="n">
         <v>1.26</v>
@@ -1414,10 +1481,10 @@
         <v>0.51</v>
       </c>
       <c r="D5" s="6" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="E5" s="3" t="n">
         <v>0.8799999999999999</v>
-      </c>
-      <c r="E5" s="3" t="n">
-        <v>0.05</v>
       </c>
       <c r="F5" s="7" t="n">
         <v>1.34</v>
@@ -1436,10 +1503,10 @@
         <v>0.62</v>
       </c>
       <c r="D6" s="8" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="E6" s="3" t="n">
         <v>0.91</v>
-      </c>
-      <c r="E6" s="3" t="n">
-        <v>0.11</v>
       </c>
       <c r="F6" s="9" t="n">
         <v>1.42</v>
@@ -1458,10 +1525,10 @@
         <v>0.85</v>
       </c>
       <c r="D7" s="8" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="E7" s="3" t="n">
         <v>0.91</v>
-      </c>
-      <c r="E7" s="3" t="n">
-        <v>0.16</v>
       </c>
       <c r="F7" s="10" t="n">
         <v>1.6</v>
@@ -1480,10 +1547,10 @@
         <v>1.2</v>
       </c>
       <c r="D8" s="11" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="E8" s="3" t="n">
         <v>0.6899999999999999</v>
-      </c>
-      <c r="E8" s="3" t="n">
-        <v>0.25</v>
       </c>
       <c r="F8" s="8" t="n">
         <v>1.64</v>
@@ -1502,10 +1569,10 @@
         <v>1.47</v>
       </c>
       <c r="D9" s="12" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="E9" s="3" t="n">
         <v>0.51</v>
-      </c>
-      <c r="E9" s="3" t="n">
-        <v>0.36</v>
       </c>
       <c r="F9" s="13" t="n">
         <v>1.62</v>
@@ -1524,10 +1591,10 @@
         <v>1.93</v>
       </c>
       <c r="D10" s="14" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="E10" s="3" t="n">
         <v>0.2700000000000002</v>
-      </c>
-      <c r="E10" s="3" t="n">
-        <v>0.72</v>
       </c>
       <c r="F10" s="15" t="n">
         <v>1.48</v>
@@ -1546,10 +1613,10 @@
         <v>2.25</v>
       </c>
       <c r="D11" s="16" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="E11" s="3" t="n">
         <v>0.08000000000000007</v>
-      </c>
-      <c r="E11" s="3" t="n">
-        <v>1.18</v>
       </c>
       <c r="F11" s="17" t="n">
         <v>1.15</v>
@@ -1568,10 +1635,10 @@
         <v>2.45</v>
       </c>
       <c r="D12" s="18" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="E12" s="3" t="n">
         <v>-0.05000000000000027</v>
-      </c>
-      <c r="E12" s="3" t="n">
-        <v>1.78</v>
       </c>
       <c r="F12" s="19" t="n">
         <v>0.6199999999999999</v>
@@ -1590,10 +1657,10 @@
         <v>2.79</v>
       </c>
       <c r="D13" s="20" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="E13" s="3" t="n">
         <v>-0.21</v>
-      </c>
-      <c r="E13" s="3" t="n">
-        <v>2.54</v>
       </c>
       <c r="F13" s="21" t="n">
         <v>0.04000000000000004</v>
@@ -1612,10 +1679,10 @@
         <v>3.06</v>
       </c>
       <c r="D14" s="22" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="E14" s="3" t="n">
         <v>-0.3199999999999998</v>
-      </c>
-      <c r="E14" s="3" t="n">
-        <v>2.95</v>
       </c>
       <c r="F14" s="23" t="n">
         <v>-0.21</v>
@@ -1625,7 +1692,7 @@
   <mergeCells count="1">
     <mergeCell ref="A1:F1"/>
   </mergeCells>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
 </worksheet>
 </file>
@@ -1636,21 +1703,14 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F22"/>
+  <dimension ref="A3:F22"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Nominal Real Estate Returns</t>
-        </is>
-      </c>
-    </row>
     <row r="3">
       <c r="B3" s="24" t="inlineStr">
         <is>
@@ -1665,21 +1725,21 @@
         </is>
       </c>
       <c r="B4" t="inlineStr"/>
-      <c r="C4" s="2" t="n">
+      <c r="C4" t="n">
         <v>1</v>
       </c>
-      <c r="D4" s="2" t="n">
+      <c r="D4" t="n">
         <v>2</v>
       </c>
-      <c r="E4" s="2" t="n">
+      <c r="E4" t="n">
         <v>3</v>
       </c>
-      <c r="F4" s="2" t="n">
+      <c r="F4" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="5">
-      <c r="B5" s="2" t="n">
+      <c r="B5" t="n">
         <v>2000</v>
       </c>
       <c r="C5" s="26" t="n">
@@ -1696,7 +1756,7 @@
       </c>
     </row>
     <row r="6">
-      <c r="B6" s="2" t="n">
+      <c r="B6" t="n">
         <v>2001</v>
       </c>
       <c r="C6" s="30" t="n">
@@ -1713,7 +1773,7 @@
       </c>
     </row>
     <row r="7">
-      <c r="B7" s="2" t="n">
+      <c r="B7" t="n">
         <v>2002</v>
       </c>
       <c r="C7" s="33" t="n">
@@ -1730,7 +1790,7 @@
       </c>
     </row>
     <row r="8">
-      <c r="B8" s="2" t="n">
+      <c r="B8" t="n">
         <v>2003</v>
       </c>
       <c r="C8" s="37" t="n">
@@ -1747,7 +1807,7 @@
       </c>
     </row>
     <row r="9">
-      <c r="B9" s="2" t="n">
+      <c r="B9" t="n">
         <v>2004</v>
       </c>
       <c r="C9" s="39" t="n">
@@ -1764,7 +1824,7 @@
       </c>
     </row>
     <row r="10">
-      <c r="B10" s="2" t="n">
+      <c r="B10" t="n">
         <v>2005</v>
       </c>
       <c r="C10" s="43" t="n">
@@ -1781,7 +1841,7 @@
       </c>
     </row>
     <row r="11">
-      <c r="B11" s="2" t="n">
+      <c r="B11" t="n">
         <v>2006</v>
       </c>
       <c r="C11" s="47" t="n">
@@ -1798,7 +1858,7 @@
       </c>
     </row>
     <row r="12">
-      <c r="B12" s="2" t="n">
+      <c r="B12" t="n">
         <v>2007</v>
       </c>
       <c r="C12" s="50" t="n">
@@ -1815,7 +1875,7 @@
       </c>
     </row>
     <row r="13">
-      <c r="B13" s="2" t="n">
+      <c r="B13" t="n">
         <v>2008</v>
       </c>
       <c r="C13" s="54" t="n">
@@ -1832,7 +1892,7 @@
       </c>
     </row>
     <row r="14">
-      <c r="B14" s="2" t="n">
+      <c r="B14" t="n">
         <v>2009</v>
       </c>
       <c r="C14" s="58" t="n">
@@ -1849,7 +1909,7 @@
       </c>
     </row>
     <row r="15">
-      <c r="B15" s="2" t="n">
+      <c r="B15" t="n">
         <v>2010</v>
       </c>
       <c r="C15" s="62" t="n">
@@ -1866,7 +1926,7 @@
       </c>
     </row>
     <row r="16">
-      <c r="B16" s="2" t="n">
+      <c r="B16" t="n">
         <v>2011</v>
       </c>
       <c r="C16" s="65" t="n">
@@ -1883,7 +1943,7 @@
       </c>
     </row>
     <row r="17">
-      <c r="B17" s="2" t="n">
+      <c r="B17" t="n">
         <v>2012</v>
       </c>
       <c r="C17" s="69" t="n">
@@ -1900,7 +1960,7 @@
       </c>
     </row>
     <row r="18">
-      <c r="B18" s="2" t="n">
+      <c r="B18" t="n">
         <v>2013</v>
       </c>
       <c r="C18" s="73" t="n">
@@ -1917,7 +1977,7 @@
       </c>
     </row>
     <row r="19">
-      <c r="B19" s="2" t="n">
+      <c r="B19" t="n">
         <v>2014</v>
       </c>
       <c r="C19" s="74" t="n">
@@ -1934,7 +1994,7 @@
       </c>
     </row>
     <row r="20">
-      <c r="B20" s="2" t="n">
+      <c r="B20" t="n">
         <v>2015</v>
       </c>
       <c r="C20" s="76" t="n">
@@ -1951,7 +2011,7 @@
       </c>
     </row>
     <row r="21">
-      <c r="B21" s="2" t="n">
+      <c r="B21" t="n">
         <v>2016</v>
       </c>
       <c r="C21" s="79" t="n">
@@ -1968,7 +2028,7 @@
       </c>
     </row>
     <row r="22">
-      <c r="B22" s="2" t="n">
+      <c r="B22" t="n">
         <v>2017</v>
       </c>
       <c r="C22" s="74" t="n">
@@ -1985,12 +2045,11 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="2">
     <mergeCell ref="A4:A22"/>
     <mergeCell ref="B3:F3"/>
-    <mergeCell ref="B1:F1"/>
   </mergeCells>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
 </worksheet>
 </file>
@@ -2001,21 +2060,14 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F22"/>
+  <dimension ref="A3:F22"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Adjusted Real Estate Returns</t>
-        </is>
-      </c>
-    </row>
     <row r="3">
       <c r="B3" s="24" t="inlineStr">
         <is>
@@ -2030,21 +2082,21 @@
         </is>
       </c>
       <c r="B4" t="inlineStr"/>
-      <c r="C4" s="2" t="n">
+      <c r="C4" t="n">
         <v>1</v>
       </c>
-      <c r="D4" s="2" t="n">
+      <c r="D4" t="n">
         <v>2</v>
       </c>
-      <c r="E4" s="2" t="n">
+      <c r="E4" t="n">
         <v>3</v>
       </c>
-      <c r="F4" s="2" t="n">
+      <c r="F4" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="5">
-      <c r="B5" s="2" t="n">
+      <c r="B5" t="n">
         <v>2000</v>
       </c>
       <c r="C5" s="84" t="n">
@@ -2061,7 +2113,7 @@
       </c>
     </row>
     <row r="6">
-      <c r="B6" s="2" t="n">
+      <c r="B6" t="n">
         <v>2001</v>
       </c>
       <c r="C6" s="86" t="n">
@@ -2078,7 +2130,7 @@
       </c>
     </row>
     <row r="7">
-      <c r="B7" s="2" t="n">
+      <c r="B7" t="n">
         <v>2002</v>
       </c>
       <c r="C7" s="89" t="n">
@@ -2095,7 +2147,7 @@
       </c>
     </row>
     <row r="8">
-      <c r="B8" s="2" t="n">
+      <c r="B8" t="n">
         <v>2003</v>
       </c>
       <c r="C8" s="92" t="n">
@@ -2112,7 +2164,7 @@
       </c>
     </row>
     <row r="9">
-      <c r="B9" s="2" t="n">
+      <c r="B9" t="n">
         <v>2004</v>
       </c>
       <c r="C9" s="95" t="n">
@@ -2129,7 +2181,7 @@
       </c>
     </row>
     <row r="10">
-      <c r="B10" s="2" t="n">
+      <c r="B10" t="n">
         <v>2005</v>
       </c>
       <c r="C10" s="98" t="n">
@@ -2146,7 +2198,7 @@
       </c>
     </row>
     <row r="11">
-      <c r="B11" s="2" t="n">
+      <c r="B11" t="n">
         <v>2006</v>
       </c>
       <c r="C11" s="102" t="n">
@@ -2163,14 +2215,14 @@
       </c>
     </row>
     <row r="12">
-      <c r="B12" s="2" t="n">
+      <c r="B12" t="n">
         <v>2007</v>
       </c>
       <c r="C12" s="106" t="n">
-        <v>-0.006959085753479366</v>
+        <v>-0.006959085753479588</v>
       </c>
       <c r="D12" s="107" t="n">
-        <v>-0.01007078667135342</v>
+        <v>-0.01007078667135319</v>
       </c>
       <c r="E12" s="108" t="n">
         <v>-0.01746086183290818</v>
@@ -2180,14 +2232,14 @@
       </c>
     </row>
     <row r="13">
-      <c r="B13" s="2" t="n">
+      <c r="B13" t="n">
         <v>2008</v>
       </c>
       <c r="C13" s="110" t="n">
-        <v>-0.01661110726161463</v>
+        <v>-0.01661110726161474</v>
       </c>
       <c r="D13" s="111" t="n">
-        <v>-0.04331228685958388</v>
+        <v>-0.04331228685958366</v>
       </c>
       <c r="E13" s="112" t="n">
         <v>-0.03777517691475873</v>
@@ -2197,7 +2249,7 @@
       </c>
     </row>
     <row r="14">
-      <c r="B14" s="2" t="n">
+      <c r="B14" t="n">
         <v>2009</v>
       </c>
       <c r="C14" s="113" t="n">
@@ -2214,14 +2266,14 @@
       </c>
     </row>
     <row r="15">
-      <c r="B15" s="2" t="n">
+      <c r="B15" t="n">
         <v>2010</v>
       </c>
       <c r="C15" s="69" t="n">
-        <v>-0.0120380037081298</v>
+        <v>-0.01203800370813002</v>
       </c>
       <c r="D15" s="54" t="n">
-        <v>-0.008306925770282136</v>
+        <v>-0.008306925770281914</v>
       </c>
       <c r="E15" s="94" t="n">
         <v>0.004550840753874574</v>
@@ -2231,28 +2283,28 @@
       </c>
     </row>
     <row r="16">
-      <c r="B16" s="2" t="n">
+      <c r="B16" t="n">
         <v>2011</v>
       </c>
       <c r="C16" s="118" t="n">
         <v>-0.03880892350906329</v>
       </c>
       <c r="D16" s="119" t="n">
-        <v>-0.02510424201549666</v>
+        <v>-0.02510424201549688</v>
       </c>
       <c r="E16" s="120" t="n">
-        <v>-0.0006460762787992014</v>
+        <v>-0.0006460762787989793</v>
       </c>
       <c r="F16" s="121" t="n">
-        <v>0.001654879540275989</v>
+        <v>0.001654879540275767</v>
       </c>
     </row>
     <row r="17">
-      <c r="B17" s="2" t="n">
+      <c r="B17" t="n">
         <v>2012</v>
       </c>
       <c r="C17" s="108" t="n">
-        <v>-0.01745424421171848</v>
+        <v>-0.01745424421171826</v>
       </c>
       <c r="D17" s="122" t="n">
         <v>-0.002989271331031107</v>
@@ -2261,15 +2313,15 @@
         <v>0.001994565482674959</v>
       </c>
       <c r="F17" s="124" t="n">
-        <v>0.007088051224867442</v>
+        <v>0.00708805122486722</v>
       </c>
     </row>
     <row r="18">
-      <c r="B18" s="2" t="n">
+      <c r="B18" t="n">
         <v>2013</v>
       </c>
       <c r="C18" s="92" t="n">
-        <v>0.0006158256118820038</v>
+        <v>0.0006158256118822258</v>
       </c>
       <c r="D18" s="125" t="n">
         <v>0.01486069724867756</v>
@@ -2278,15 +2330,15 @@
         <v>0.01074303432977675</v>
       </c>
       <c r="F18" s="126" t="n">
-        <v>0.003119292654079731</v>
+        <v>0.003119292654079953</v>
       </c>
     </row>
     <row r="19">
-      <c r="B19" s="2" t="n">
+      <c r="B19" t="n">
         <v>2014</v>
       </c>
       <c r="C19" s="126" t="n">
-        <v>0.003208258785023732</v>
+        <v>0.00320825878502351</v>
       </c>
       <c r="D19" s="37" t="n">
         <v>0.01392079018597436</v>
@@ -2299,7 +2351,7 @@
       </c>
     </row>
     <row r="20">
-      <c r="B20" s="2" t="n">
+      <c r="B20" t="n">
         <v>2015</v>
       </c>
       <c r="C20" s="97" t="n">
@@ -2316,7 +2368,7 @@
       </c>
     </row>
     <row r="21">
-      <c r="B21" s="2" t="n">
+      <c r="B21" t="n">
         <v>2016</v>
       </c>
       <c r="C21" s="67" t="n">
@@ -2326,21 +2378,21 @@
         <v>0.01015334047327232</v>
       </c>
       <c r="E21" s="130" t="n">
-        <v>0.01395527637305771</v>
+        <v>0.01395527637305749</v>
       </c>
       <c r="F21" s="131" t="n">
-        <v>0.002266353222357909</v>
+        <v>0.002266353222358353</v>
       </c>
     </row>
     <row r="22">
-      <c r="B22" s="2" t="n">
+      <c r="B22" t="n">
         <v>2017</v>
       </c>
       <c r="C22" s="94" t="n">
-        <v>0.004503598913540907</v>
+        <v>0.004503598913540463</v>
       </c>
       <c r="D22" s="132" t="n">
-        <v>0.02259690835594763</v>
+        <v>0.02259690835594785</v>
       </c>
       <c r="E22" s="87" t="n">
         <v>0.007548854283155215</v>
@@ -2350,12 +2402,11 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="2">
     <mergeCell ref="A4:A22"/>
     <mergeCell ref="B3:F3"/>
-    <mergeCell ref="B1:F1"/>
   </mergeCells>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
 </worksheet>
 </file>